--- a/pred_ohlcv/54_21/2020-01-14 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>380.6241303440044</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>381.3873303440044</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>372.1467303440044</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>439.0644780532285</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>432.8513675397811</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>424.1829675397811</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>424.7137675397811</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>425.5283675397811</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>436.0081675397811</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>429.146467539781</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>421.7797675397811</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>433.1569675397811</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>430.4301675397811</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>433.6311675397811</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>422.8957675397812</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>405.1240675397811</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>286.0293145446711</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2291.134496457401</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2215.545196457401</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2044.925296457401</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2175.677496457401</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2192.008696457401</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2158.247496457401</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2256.791096457401</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2266.065596457401</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2265.690496457401</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2257.847496457401</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>2267.281696457401</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>2223.465910821369</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>2207.965910821369</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>2201.941210821369</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>2206.546210821369</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>2171.105010821369</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2147.530510821369</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2096.267110821369</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2055.189010821369</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2067.560110821369</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2067.560110821369</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2061.450510821369</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2061.450510821369</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2106.906510821369</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2085.265510821369</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2089.746910821369</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2158.653103068265</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2424.636570562743</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2381.935870562743</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2422.875870562743</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2407.798970562743</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>2408.185870562743</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>2395.861770562743</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>2396.496270562744</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2389.289770562744</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2159.294770562744</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>2161.173170562744</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>2159.670070562744</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3271.863688310759</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3299.205088310759</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-3369.195088310759</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-3369.185788310759</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-3369.185788310759</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3359.950088310759</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-3408.457188310759</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-3411.475088310759</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-3282.735088310758</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-3334.426088310758</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-3508.877088310758</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3498.665788310758</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3483.958588310758</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-3482.460688310758</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3516.175988310758</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-3494.285388310758</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-3459.138488310758</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-3459.193488310757</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-3281.863488310757</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-3244.248988310757</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-2515.337335572133</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-2576.852430278461</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-2580.267230278461</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-2583.185948012451</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-2600.902348012452</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-2324.455448012452</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-2133.469605761529</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-2510.740405761529</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-2758.849205761529</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-2767.762420197063</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-3605.878320197063</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3419.21927409766</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3426.79027409766</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3401.35307409766</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3400.51617409766</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3420.47587409766</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3208.14507409766</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3282.75687409766</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3314.764474097661</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3426.253499784657</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3425.580799784657</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3458.161099784657</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3454.329699784657</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3454.246199784657</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3481.236199784656</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3453.722299784657</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-3533.641299784656</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-3528.443499784657</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3835.451099784656</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3788.137499784656</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3792.337499784656</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3825.826299784656</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3837.693099784656</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-3828.569699784656</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-3839.370899784656</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-3831.366646760649</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-3929.001946760648</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-3927.086146760648</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3921.393846760649</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-3920.095324470008</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3920.193824470008</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-3914.839824470008</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-3913.818624470008</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-3915.749624470008</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-3890.214924470008</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>380.6241303440044</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>381.3873303440044</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>372.1467303440044</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>439.0644780532285</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>432.8513675397811</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>424.1829675397811</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>424.7137675397811</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>425.5283675397811</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>436.0081675397811</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>429.146467539781</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>421.7797675397811</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>433.1569675397811</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>430.4301675397811</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>433.6311675397811</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>422.8957675397812</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>405.1240675397811</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>286.0293145446711</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1651.683196457401</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2018.862596457401</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2291.134496457401</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2215.545196457401</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2044.925296457401</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2175.677496457401</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2192.008696457401</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2158.247496457401</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2256.791096457401</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2266.065596457401</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2265.690496457401</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2257.847496457401</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>2267.281696457401</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>2223.465910821369</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>2207.965910821369</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>2201.941210821369</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>2206.546210821369</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>2171.105010821369</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2147.530510821369</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2381.935870562743</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2422.875870562743</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2407.798970562743</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>2408.185870562743</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>2395.861770562743</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>2396.496270562744</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2389.289770562744</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2159.294770562744</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-3839.955865386347</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-3839.955865386347</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-3282.735088310758</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3498.665788310758</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3483.958588310758</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-3482.460688310758</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3516.175988310758</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-3494.285388310758</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-3459.138488310758</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-3459.193488310757</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-3281.863488310757</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-3244.248988310757</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-3203.709582370163</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-2515.337335572133</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-2576.852430278461</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-2580.267230278461</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-2583.185948012451</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-2600.902348012452</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-2324.455448012452</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-2133.469605761529</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-2510.740405761529</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-2758.849205761529</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-2767.762420197063</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-3605.878320197063</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3419.21927409766</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3426.79027409766</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3401.35307409766</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3400.51617409766</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3420.47587409766</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3208.14507409766</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3282.75687409766</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3314.764474097661</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3426.253499784657</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3425.580799784657</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3458.161099784657</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3454.329699784657</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3454.246199784657</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3481.236199784656</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3453.722299784657</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-3533.641299784656</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-3528.443499784657</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3835.451099784656</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3788.137499784656</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3792.337499784656</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3825.826299784656</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3837.693099784656</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-3828.569699784656</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-3839.370899784656</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-3831.366646760649</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-3929.001946760648</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-3927.086146760648</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3921.393846760649</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-3920.095324470008</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3920.193824470008</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-3914.839824470008</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-3913.818624470008</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-3915.749624470008</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-3890.214924470008</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
